--- a/dimensions.xlsx
+++ b/dimensions.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstSheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BrandNewSheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FirstSheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +414,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="C1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/dimensions.xlsx
+++ b/dimensions.xlsx
@@ -414,14 +414,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/dimensions.xlsx
+++ b/dimensions.xlsx
@@ -422,7 +422,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Data in a merge cell</t>
+        </is>
+      </c>
+    </row>
     <row r="2"/>
     <row r="3"/>
   </sheetData>

--- a/dimensions.xlsx
+++ b/dimensions.xlsx
@@ -47,8 +47,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,7 +426,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Data in a merge cell</t>
         </is>

--- a/dimensions.xlsx
+++ b/dimensions.xlsx
@@ -50,7 +50,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/dimensions.xlsx
+++ b/dimensions.xlsx
@@ -50,7 +50,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/dimensions.xlsx
+++ b/dimensions.xlsx
@@ -47,10 +47,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,9 +437,17 @@
     </row>
     <row r="2"/>
     <row r="3"/>
+    <row r="5">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>We just merged cells in the sama row.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
